--- a/Presupuesto.xlsx
+++ b/Presupuesto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2108\Documents\Proyectos\IoT_Frigo_BOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a2108\Documents\GitHub\ESP32_BOS_Frigo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBF077-D5B3-4C46-B4C8-B0AC1CEB75A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270CFE16-031B-42A4-A285-7582404C4927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3492" yWindow="348" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Concepto</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Coste</t>
   </si>
   <si>
-    <t>PCB</t>
-  </si>
-  <si>
     <t>Zumbador 12 V</t>
   </si>
   <si>
@@ -72,10 +69,16 @@
     <t>Coste material</t>
   </si>
   <si>
-    <t>Caja</t>
-  </si>
-  <si>
     <t>Sonda Pt100</t>
+  </si>
+  <si>
+    <t>Sonda NTC</t>
+  </si>
+  <si>
+    <t>Sonda PTC</t>
+  </si>
+  <si>
+    <t>Nº placas</t>
   </si>
 </sst>
 </file>
@@ -438,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,10 +453,12 @@
     <col min="2" max="2" width="12.88671875" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="6"/>
-    <col min="5" max="16384" width="8.88671875" style="4"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="6" max="6" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -464,180 +469,210 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <f>B2*C2*D2</f>
+        <v>8.4700000000000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <f>B2*C2</f>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11">
-        <v>8.4700000000000006</v>
+      <c r="B3" s="1">
+        <v>13.63</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D22" si="0">B3*C3</f>
-        <v>8.4700000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E10" si="0">B3*C3*D3</f>
+        <v>13.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>13.63</v>
+        <v>5.45</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>13.63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>5.45</v>
+        <v>1.4379999999999999</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>5.45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.8759999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>1.4379999999999999</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>2.8759999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4.3440000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0860000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>1.0860000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
-        <v>2.88</v>
+        <v>23.7</v>
       </c>
       <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <f>B8*C8</f>
-        <v>2.88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1">
-        <v>4.5599999999999996</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:D10" si="1">B9*C9</f>
-        <v>4.5599999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>23.7</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
-        <f t="shared" si="1"/>
-        <v>23.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="9">
-        <f>SUM(D2:D10)</f>
-        <v>66.802000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="4"/>
+      <c r="E11" s="9">
+        <f>SUM(E2:E10)</f>
+        <v>148.80000000000001</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="7"/>
@@ -667,18 +702,6 @@
       <c r="C20" s="7"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
